--- a/BackTest/2020-01-11 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-11 BackTest QTUM.xlsx
@@ -8571,17 +8571,13 @@
         <v>1852.166666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>1840</v>
-      </c>
-      <c r="K234" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
@@ -8610,366 +8606,324 @@
         <v>1851.9</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
         <v>1839</v>
       </c>
-      <c r="K235" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="C236" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1838</v>
+      </c>
+      <c r="F236" t="n">
+        <v>42.818</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1851.616666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1838</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1837</v>
+      </c>
+      <c r="F237" t="n">
+        <v>210.7816</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1851.316666666667</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1837</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1837</v>
+      </c>
+      <c r="F238" t="n">
+        <v>383.5489</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1851.016666666667</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1835</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1835</v>
+      </c>
+      <c r="F239" t="n">
+        <v>103.771</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1850.666666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1837</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1836</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1836</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1836</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30.0219</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1850.25</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1835</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1837</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1839</v>
-      </c>
-      <c r="C236" t="n">
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1841</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1841</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1849.983333333333</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1836</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1837</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1836</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1836</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1836</v>
+      </c>
+      <c r="F242" t="n">
+        <v>24.154</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1849.583333333333</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1841</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1843</v>
+      </c>
+      <c r="C243" t="n">
         <v>1838</v>
       </c>
-      <c r="D236" t="n">
-        <v>1839</v>
-      </c>
-      <c r="E236" t="n">
+      <c r="D243" t="n">
+        <v>1843</v>
+      </c>
+      <c r="E243" t="n">
         <v>1838</v>
       </c>
-      <c r="F236" t="n">
-        <v>42.818</v>
-      </c>
-      <c r="G236" t="n">
-        <v>1851.616666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1839</v>
-      </c>
-      <c r="K236" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="F243" t="n">
+        <v>640.7593000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1849.266666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1841</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1838</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1837</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1838</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1837</v>
-      </c>
-      <c r="F237" t="n">
-        <v>210.7816</v>
-      </c>
-      <c r="G237" t="n">
-        <v>1851.316666666667</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1838</v>
-      </c>
-      <c r="K237" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1837</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1837</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1837</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1837</v>
-      </c>
-      <c r="F238" t="n">
-        <v>383.5489</v>
-      </c>
-      <c r="G238" t="n">
-        <v>1851.016666666667</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1837</v>
-      </c>
-      <c r="K238" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1835</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1835</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1835</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1835</v>
-      </c>
-      <c r="F239" t="n">
-        <v>103.771</v>
-      </c>
-      <c r="G239" t="n">
-        <v>1850.666666666667</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>1835</v>
-      </c>
-      <c r="K239" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1836</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D240" t="n">
-        <v>1836</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1836</v>
-      </c>
-      <c r="F240" t="n">
-        <v>30.0219</v>
-      </c>
-      <c r="G240" t="n">
-        <v>1850.25</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1836</v>
-      </c>
-      <c r="K240" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1841</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1841</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1841</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1841</v>
-      </c>
-      <c r="F241" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="G241" t="n">
-        <v>1849.983333333333</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K241" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1836</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1836</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1836</v>
-      </c>
-      <c r="F242" t="n">
-        <v>24.154</v>
-      </c>
-      <c r="G242" t="n">
-        <v>1849.583333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1836</v>
-      </c>
-      <c r="K242" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1843</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1838</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1843</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1838</v>
-      </c>
-      <c r="F243" t="n">
-        <v>640.7593000000001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>1849.266666666667</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1843</v>
-      </c>
-      <c r="K243" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8997,16 +8951,14 @@
         <v>1848.966666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>1839</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9040,16 +8992,14 @@
         <v>1848.8</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>1845</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9083,16 +9033,14 @@
         <v>1848.65</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>1845</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9126,16 +9074,14 @@
         <v>1848.55</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>1846</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9169,16 +9115,14 @@
         <v>1848.466666666667</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9212,16 +9156,14 @@
         <v>1848.316666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9255,16 +9197,14 @@
         <v>1848.2</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9298,16 +9238,14 @@
         <v>1848.216666666667</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>1854</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9341,16 +9279,14 @@
         <v>1848.133333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>1848</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9384,16 +9320,14 @@
         <v>1848.033333333333</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9427,16 +9361,14 @@
         <v>1847.966666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9470,16 +9402,14 @@
         <v>1847.9</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9513,16 +9443,14 @@
         <v>1847.833333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>1848</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9556,16 +9484,14 @@
         <v>1847.75</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9599,16 +9525,14 @@
         <v>1847.683333333333</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9642,16 +9566,14 @@
         <v>1847.616666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>1847</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9685,16 +9607,14 @@
         <v>1847.566666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>1848</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -9728,16 +9648,14 @@
         <v>1847.533333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>1848</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -9778,7 +9696,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -9819,7 +9737,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -9860,7 +9778,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -9901,7 +9819,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -9935,16 +9853,14 @@
         <v>1847.55</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>1858</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -9985,7 +9901,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10026,7 +9942,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10067,7 +9983,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10108,7 +10024,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10149,7 +10065,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10190,7 +10106,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10231,7 +10147,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10272,7 +10188,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10313,7 +10229,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10354,7 +10270,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10395,7 +10311,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10436,7 +10352,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10477,7 +10393,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10518,7 +10434,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10559,7 +10475,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10600,7 +10516,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10641,7 +10557,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10682,7 +10598,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10723,7 +10639,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10764,7 +10680,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10805,7 +10721,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10846,7 +10762,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10887,7 +10803,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -10924,19 +10840,19 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>1.021615969581749</v>
       </c>
     </row>
     <row r="291">
@@ -10968,14 +10884,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10919,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11050,14 +10954,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11091,14 +10989,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11132,14 +11024,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11173,14 +11059,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11214,14 +11094,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11255,14 +11129,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11296,14 +11164,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +11199,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11378,14 +11234,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11419,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +11304,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11542,14 +11374,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +11409,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11624,14 +11444,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11665,14 +11479,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11706,14 +11514,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11747,14 +11549,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11788,14 +11584,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11829,14 +11619,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11870,14 +11654,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11911,14 +11689,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11952,14 +11724,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11990,19 +11756,13 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>1840</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
-        <v>1.024347826086957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -12031,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -12066,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
@@ -12101,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -12136,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -12171,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
@@ -12206,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
@@ -12311,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
@@ -12486,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
@@ -12521,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -12556,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
@@ -12591,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -12626,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -13151,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -13186,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
@@ -13221,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
@@ -13256,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
@@ -13291,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-11 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5733.6703</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7927.725</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7830.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7978.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-8311.1747</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8311.1747</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8211.3747</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5901.5572</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5964.495</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5758.7896</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5858.9599</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5138.940399999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5735.5137</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4569.5137</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4568.5137</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4567.5137</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4477.954599999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5838.654599999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6338.654599999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5038.954099999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5088.954099999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4950.161899999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4950.161899999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4479.576590399998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4479.576590399998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4579.608590399998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3451.068590399998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3654.798590399998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5901.933490399999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7310.531590399999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7036.240890399999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7134.915690399999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7150.5156904</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7768.5156904</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7563.870290399999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7278.8627904</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7258.517790399999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7254.969490399999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7335.178190399999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7183.113990399999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7314.675390399999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-8650.771190399999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-8553.071190399998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7470.544155569997</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7404.135655569997</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7488.823655569997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6245.023655569997</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4337.680865959996</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4825.099765959995</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4823.559670369995</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4911.431570369995</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5581.316470369995</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5510.653370369995</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4295.262870369996</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4293.514870369996</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4179.474670369997</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31050.12337037</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-30345.40337037</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-30594.51817037</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-31864.74177037</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-31862.74177037</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-35665.60227037</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-35560.60767037</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-35560.60767037</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-35256.19977037</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-35286.19977037</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-35286.19977037</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-36144.89977037</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-38668.99977037</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-48277.49027037</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-50446.57037037</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-50446.57037037</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-52376.99567037</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-58492.93297037</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-58192.93307037</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-58192.93307037</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-59179.24817037</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-59179.24817037</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-61559.99939835</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-61523.28954365999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-61486.43554365999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-63092.58934365999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-63092.58934365999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-63379.36084366</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-63400.21944366</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9922,10 +9922,14 @@
         <v>-67728.48374366001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1844</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1844</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -9955,11 +9959,19 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1843</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1844</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10000,19 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1844</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,10 +10041,14 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1841</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10054,11 +10078,19 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1840</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10119,19 @@
         <v>-68818.08454366001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1840</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10160,19 @@
         <v>-68860.90254366001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1839</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,15 +10201,17 @@
         <v>-69071.68414366001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>1838</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1841</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L296" t="n">
@@ -10192,12 +10242,14 @@
         <v>-69071.68414366001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>1837</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1841</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10231,12 +10283,14 @@
         <v>-69175.45514366</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>1837</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1841</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,12 +10324,14 @@
         <v>-69145.43324365999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>1835</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1841</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,12 +10365,14 @@
         <v>-69122.67324366</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>1836</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1841</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10348,12 +10406,14 @@
         <v>-69146.82724365999</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>1841</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1841</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10387,12 +10447,14 @@
         <v>-68506.06794365999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>1836</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1841</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,12 +10488,14 @@
         <v>-68506.06794365999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>1838</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1841</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10465,12 +10529,14 @@
         <v>-68492.03424365999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>1838</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1841</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,12 +10570,14 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>1845</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1841</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10543,12 +10611,14 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>1846</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1841</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10582,12 +10652,14 @@
         <v>-68378.68724365998</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>1846</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1841</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,12 +10693,14 @@
         <v>-68447.49934365998</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>1847</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1841</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10660,12 +10734,14 @@
         <v>-68265.21294365998</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>1846</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1841</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10699,12 +10775,14 @@
         <v>-68264.61294365997</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>1847</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1841</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10738,10 +10816,14 @@
         <v>-68428.38834365997</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1854</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1841</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,10 +10857,14 @@
         <v>-68503.48834365998</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1841</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10812,12 +10898,14 @@
         <v>-68503.48834365998</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>1847</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1841</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10851,10 +10939,14 @@
         <v>-68216.02054365998</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1847</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1841</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,10 +10980,14 @@
         <v>-68216.02054365998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1841</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,10 +11021,14 @@
         <v>-68333.17354365998</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1841</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10962,10 +11062,14 @@
         <v>-68230.91054365998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1841</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10999,10 +11103,14 @@
         <v>-68230.91054365998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1847</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1841</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11036,10 +11144,14 @@
         <v>-68094.87374365998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1847</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1841</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11073,10 +11185,14 @@
         <v>-68094.87374365998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1841</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,7 +11229,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1841</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,7 +11268,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1841</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11184,10 +11304,14 @@
         <v>-68955.99404365997</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1841</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,10 +11345,14 @@
         <v>-68931.07694365997</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1843</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1841</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,7 +11389,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1841</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,7 +11428,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1841</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11467,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1841</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11372,7 +11506,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1841</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11409,7 +11545,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1841</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11443,10 +11581,12 @@
         <v>-66347.38131129996</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1841</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,7 +11623,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1841</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,7 +11662,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1841</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11557,7 +11701,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1841</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,7 +11740,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1841</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,7 +11779,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1841</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,7 +11818,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1841</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,7 +11857,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1841</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,7 +11896,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1841</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11779,7 +11935,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1841</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,7 +11974,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1841</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11853,7 +12013,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1841</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11890,7 +12052,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1841</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,7 +12091,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1841</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,7 +12130,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1841</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12001,7 +12169,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1841</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,7 +12208,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1841</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12075,7 +12247,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1841</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,7 +12286,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1841</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,10 +12322,12 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1841</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,7 +12364,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1841</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12220,10 +12400,12 @@
         <v>-61273.88491129997</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1841</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,7 +12442,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1841</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,10 +12478,12 @@
         <v>-61833.40891129997</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1841</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,10 +12517,12 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1841</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12368,10 +12556,12 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1841</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12405,10 +12595,12 @@
         <v>-60608.28681129997</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1841</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,7 +12637,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1841</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12482,7 +12676,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1841</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,7 +12715,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1841</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12553,10 +12751,12 @@
         <v>-55542.90301129998</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1841</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12590,10 +12790,12 @@
         <v>-55522.90301129998</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1841</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12627,10 +12829,12 @@
         <v>-55874.43291129998</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1841</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12664,10 +12868,12 @@
         <v>-56197.20471129998</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1841</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,7 +12910,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1841</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12741,7 +12949,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1841</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,7 +12988,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1841</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12815,7 +13027,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1841</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,10 +13063,12 @@
         <v>-56722.27021129998</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1841</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12886,10 +13102,12 @@
         <v>-56722.27021129998</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1841</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,7 +13144,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1841</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12963,7 +13183,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1841</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13000,7 +13222,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1841</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13037,7 +13261,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1841</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13074,7 +13300,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1841</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,7 +13339,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1841</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,7 +13378,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1841</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,10 +13414,12 @@
         <v>-54881.51401129998</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1841</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,7 +13456,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1841</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13259,7 +13495,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1841</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,7 +13534,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1841</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13333,7 +13573,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1841</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13370,7 +13612,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1841</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13407,7 +13651,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1841</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,7 +13690,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1841</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13481,7 +13729,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1841</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,7 +13768,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1841</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,7 +13807,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1841</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13592,7 +13846,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1841</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,7 +13885,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1841</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13666,7 +13924,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1841</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,7 +13963,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1841</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,7 +14002,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1841</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13777,7 +14041,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1841</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13811,576 +14077,682 @@
         <v>-57767.81434274997</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1841</v>
+      </c>
       <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1416.7496</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-57767.81434274997</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F396" t="n">
+        <v>10</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-57757.81434274997</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F397" t="n">
+        <v>203.4718</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-57554.34254274997</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F398" t="n">
+        <v>87.93980000000001</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-57642.28234274997</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F399" t="n">
+        <v>83.0277</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-57725.31004274997</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F400" t="n">
+        <v>350.623</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-57374.68704274997</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1001.9364</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-56372.75064274997</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2555.7951</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-56372.75064274997</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2639.9206</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-53732.83004274997</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2839.0676</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-56571.89764274997</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F405" t="n">
+        <v>975.6416</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-56571.89764274997</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F406" t="n">
+        <v>243.4558</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-56328.44184274997</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F407" t="n">
+        <v>347.9563</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-56328.44184274997</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1925</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1394.2788</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-56328.44184274997</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F409" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-56328.44184274997</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1925</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F410" t="n">
+        <v>12436.6739</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-68765.11574274997</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F411" t="n">
+        <v>783.4237000000001</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-68765.11574274997</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K411" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F395" t="n">
-        <v>1416.7496</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-57767.81434274997</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F396" t="n">
-        <v>10</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-57757.81434274997</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C397" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D397" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E397" t="n">
-        <v>1902</v>
-      </c>
-      <c r="F397" t="n">
-        <v>203.4718</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-57554.34254274997</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F398" t="n">
-        <v>87.93980000000001</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-57642.28234274997</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C399" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D399" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E399" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F399" t="n">
-        <v>83.0277</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-57725.31004274997</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="D400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="F400" t="n">
-        <v>350.623</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-57374.68704274997</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E401" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F401" t="n">
-        <v>1001.9364</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-56372.75064274997</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F402" t="n">
-        <v>2555.7951</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-56372.75064274997</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C403" t="n">
-        <v>1916</v>
-      </c>
-      <c r="D403" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E403" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F403" t="n">
-        <v>2639.9206</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-53732.83004274997</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C404" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D404" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E404" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F404" t="n">
-        <v>2839.0676</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-56571.89764274997</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F405" t="n">
-        <v>975.6416</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-56571.89764274997</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1917</v>
-      </c>
-      <c r="C406" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D406" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E406" t="n">
-        <v>1917</v>
-      </c>
-      <c r="F406" t="n">
-        <v>243.4558</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-56328.44184274997</v>
-      </c>
-      <c r="H406" t="n">
-        <v>3</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C407" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D407" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E407" t="n">
-        <v>1920</v>
-      </c>
-      <c r="F407" t="n">
-        <v>347.9563</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-56328.44184274997</v>
-      </c>
-      <c r="H407" t="n">
-        <v>3</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C408" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D408" t="n">
-        <v>1925</v>
-      </c>
-      <c r="E408" t="n">
-        <v>1920</v>
-      </c>
-      <c r="F408" t="n">
-        <v>1394.2788</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-56328.44184274997</v>
-      </c>
-      <c r="H408" t="n">
-        <v>3</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C409" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D409" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E409" t="n">
-        <v>1920</v>
-      </c>
-      <c r="F409" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-56328.44184274997</v>
-      </c>
-      <c r="H409" t="n">
-        <v>3</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C410" t="n">
-        <v>1919</v>
-      </c>
-      <c r="D410" t="n">
-        <v>1925</v>
-      </c>
-      <c r="E410" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F410" t="n">
-        <v>12436.6739</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-68765.11574274997</v>
-      </c>
-      <c r="H410" t="n">
-        <v>3</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>1919</v>
-      </c>
-      <c r="C411" t="n">
-        <v>1919</v>
-      </c>
-      <c r="D411" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E411" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F411" t="n">
-        <v>783.4237000000001</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-68765.11574274997</v>
-      </c>
-      <c r="H411" t="n">
-        <v>3</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
-        <v>1</v>
+        <v>1.037368278109723</v>
       </c>
       <c r="M411" t="inlineStr"/>
     </row>
@@ -14407,7 +14779,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14440,7 +14812,7 @@
         <v>-68607.05594274997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14473,7 +14845,7 @@
         <v>-69015.69334274998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14506,7 +14878,7 @@
         <v>-71085.59664274998</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14539,7 +14911,7 @@
         <v>-71987.27894274998</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14572,7 +14944,7 @@
         <v>-73297.51744274999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14605,7 +14977,7 @@
         <v>-73487.41744274998</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14638,7 +15010,7 @@
         <v>-73848.19314274998</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14671,7 +15043,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14704,7 +15076,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14737,7 +15109,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14770,7 +15142,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14803,7 +15175,7 @@
         <v>-73567.31934274998</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14836,7 +15208,7 @@
         <v>-73775.50164274998</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14869,7 +15241,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14902,7 +15274,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14935,7 +15307,7 @@
         <v>-72402.86774274998</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14968,7 +15340,7 @@
         <v>-74664.82354274997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15001,7 +15373,7 @@
         <v>-74638.60044274997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15034,7 +15406,7 @@
         <v>-74656.60044274997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15067,7 +15439,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15100,7 +15472,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15133,7 +15505,7 @@
         <v>-76435.94234274997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15166,7 +15538,7 @@
         <v>-76868.46144274998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15199,7 +15571,7 @@
         <v>-77038.56804274998</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15232,7 +15604,7 @@
         <v>-77587.54694274998</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15408,6 +15780,6 @@
       <c r="M442" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-11 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5733.6703</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7927.725</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7830.125</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7978.125</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-8311.1747</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8311.1747</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8211.3747</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5901.5572</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5964.495</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5758.7896</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5858.9599</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5138.940399999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5735.5137</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4569.5137</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4568.5137</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4567.5137</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4477.954599999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5838.654599999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6338.654599999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5042.209399999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5038.954099999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5088.954099999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3386.198899999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3601.956290399998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4357.312790399998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4479.576590399998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4479.576590399998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4579.608590399998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3451.068590399998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3654.798590399998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5901.933490399999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7310.531590399999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7036.240890399999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7134.915690399999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7150.5156904</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7768.5156904</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7563.870290399999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7278.8627904</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7258.517790399999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7254.969490399999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7335.178190399999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7183.113990399999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7314.675390399999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-8650.771190399999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-8553.071190399998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7194.365555569997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7460.651455569997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7495.880355569997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7470.544155569997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7404.135655569997</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7488.823655569997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6245.023655569997</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-30345.40337037</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-30594.51817037</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-31864.74177037</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-31862.74177037</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-35560.60767037</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-35560.60767037</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-35256.19977037</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-35286.19977037</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-35286.19977037</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-36144.89977037</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-36143.89977037</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-38668.99977037</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-48277.49027037</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-50446.57037037</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-50446.57037037</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-52376.99567037</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-58492.93297037</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-58192.93307037</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-58192.93307037</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-59179.24817037</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-59179.24817037</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -9031,10 +9031,14 @@
         <v>-64065.25674366</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1850</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1850</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
@@ -9067,8 +9071,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1850</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9110,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1850</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9922,14 +9938,10 @@
         <v>-67728.48374366001</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1844</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -9959,97 +9971,89 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1843</v>
-      </c>
-      <c r="J290" t="n">
-        <v>1844</v>
-      </c>
-      <c r="K290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F291" t="n">
+        <v>295.1558</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-68628.48344366001</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1840</v>
+      </c>
+      <c r="F292" t="n">
+        <v>144.2611</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-68772.74454366001</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="E291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="F291" t="n">
-        <v>295.1558</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-68628.48344366001</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="J291" t="n">
-        <v>1844</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>1840</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1840</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1840</v>
-      </c>
-      <c r="E292" t="n">
-        <v>1840</v>
-      </c>
-      <c r="F292" t="n">
-        <v>144.2611</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-68772.74454366001</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1841</v>
-      </c>
-      <c r="J292" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10125,13 +10129,9 @@
         <v>1840</v>
       </c>
       <c r="J294" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1840</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>1839</v>
       </c>
       <c r="J295" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>1838</v>
       </c>
       <c r="J296" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>1837</v>
       </c>
       <c r="J297" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>1837</v>
       </c>
       <c r="J298" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>1835</v>
       </c>
       <c r="J299" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>1836</v>
       </c>
       <c r="J300" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>1841</v>
       </c>
       <c r="J301" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>1836</v>
       </c>
       <c r="J302" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>1838</v>
       </c>
       <c r="J303" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>1838</v>
       </c>
       <c r="J304" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10570,13 +10570,11 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10611,13 +10609,11 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10652,13 +10648,11 @@
         <v>-68378.68724365998</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10693,13 +10687,11 @@
         <v>-68447.49934365998</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10734,13 +10726,11 @@
         <v>-68265.21294365998</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10775,13 +10765,11 @@
         <v>-68264.61294365997</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10816,13 +10804,11 @@
         <v>-68428.38834365997</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10857,13 +10843,11 @@
         <v>-68503.48834365998</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10898,13 +10882,11 @@
         <v>-68503.48834365998</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10939,13 +10921,11 @@
         <v>-68216.02054365998</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10980,13 +10960,11 @@
         <v>-68216.02054365998</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>1848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11021,13 +10999,11 @@
         <v>-68333.17354365998</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>1848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11062,13 +11038,11 @@
         <v>-68230.91054365998</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11103,13 +11077,11 @@
         <v>-68230.91054365998</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11144,13 +11116,11 @@
         <v>-68094.87374365998</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11185,13 +11155,11 @@
         <v>-68094.87374365998</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11230,7 +11198,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11269,7 +11237,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11310,7 +11278,7 @@
         <v>1846</v>
       </c>
       <c r="J323" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11345,13 +11313,11 @@
         <v>-68931.07694365997</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11390,7 +11356,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11429,7 +11395,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11468,7 +11434,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11507,7 +11473,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11546,7 +11512,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11585,7 +11551,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11624,7 +11590,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11663,7 +11629,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11702,7 +11668,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11741,7 +11707,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11780,7 +11746,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11819,7 +11785,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11858,7 +11824,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11893,19 +11859,19 @@
         <v>-65240.32631129996</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>1.016739130434783</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -11932,17 +11898,11 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11971,17 +11931,11 @@
         <v>-65247.73661129997</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12010,17 +11964,11 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12049,17 +11997,11 @@
         <v>-65250.62461129997</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12088,17 +12030,11 @@
         <v>-66436.95591129997</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12127,17 +12063,11 @@
         <v>-66095.07541129997</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12166,17 +12096,11 @@
         <v>-65182.37141129997</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12205,17 +12129,11 @@
         <v>-65235.17771129997</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12244,17 +12162,11 @@
         <v>-61273.02321129997</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12283,17 +12195,11 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12322,17 +12228,11 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12361,17 +12261,11 @@
         <v>-61278.88491129997</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12400,17 +12294,11 @@
         <v>-61273.88491129997</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12439,17 +12327,11 @@
         <v>-61579.28991129997</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12478,17 +12360,11 @@
         <v>-61833.40891129997</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12517,17 +12393,11 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12556,17 +12426,11 @@
         <v>-61003.59891129997</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12595,17 +12459,11 @@
         <v>-60608.28681129997</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12637,14 +12495,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12673,17 +12525,11 @@
         <v>-55763.99381129997</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12715,14 +12561,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12754,14 +12594,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12790,17 +12624,11 @@
         <v>-55522.90301129998</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12832,14 +12660,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12871,14 +12693,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12910,14 +12726,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12949,14 +12759,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12988,14 +12792,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13027,14 +12825,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13066,14 +12858,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13105,14 +12891,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13144,14 +12924,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +12957,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +12990,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +13023,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13300,14 +13056,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +13089,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +13122,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13417,14 +13155,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +13188,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13495,14 +13221,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13534,14 +13254,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13573,14 +13287,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13612,14 +13320,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +13353,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13690,14 +13386,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +13419,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13768,14 +13452,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13807,14 +13485,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13846,14 +13518,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13885,14 +13551,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +13584,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13963,14 +13617,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +13650,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14041,14 +13683,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +13716,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14119,14 +13749,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14158,14 +13782,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14197,14 +13815,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14236,14 +13848,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14275,14 +13881,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14314,14 +13914,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14353,14 +13947,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14392,14 +13980,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14431,14 +14013,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14470,14 +14046,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14509,14 +14079,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14548,14 +14112,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14587,14 +14145,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14626,14 +14178,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14665,14 +14211,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14704,14 +14244,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14740,19 +14274,13 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
-        <v>1.037368278109723</v>
+        <v>1</v>
       </c>
       <c r="M411" t="inlineStr"/>
     </row>
@@ -14845,7 +14373,7 @@
         <v>-69015.69334274998</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14878,7 +14406,7 @@
         <v>-71085.59664274998</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14911,7 +14439,7 @@
         <v>-71987.27894274998</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14944,7 +14472,7 @@
         <v>-73297.51744274999</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14977,7 +14505,7 @@
         <v>-73487.41744274998</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15010,7 +14538,7 @@
         <v>-73848.19314274998</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15043,7 +14571,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15076,7 +14604,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15109,7 +14637,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15142,7 +14670,7 @@
         <v>-73427.47354274998</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15175,7 +14703,7 @@
         <v>-73567.31934274998</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15208,7 +14736,7 @@
         <v>-73775.50164274998</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15241,7 +14769,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15274,7 +14802,7 @@
         <v>-73110.36774274998</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15307,7 +14835,7 @@
         <v>-72402.86774274998</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15340,7 +14868,7 @@
         <v>-74664.82354274997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15373,7 +14901,7 @@
         <v>-74638.60044274997</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15406,7 +14934,7 @@
         <v>-74656.60044274997</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15439,7 +14967,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15472,7 +15000,7 @@
         <v>-76373.60044274997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15505,7 +15033,7 @@
         <v>-76435.94234274997</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15538,7 +15066,7 @@
         <v>-76868.46144274998</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15571,7 +15099,7 @@
         <v>-77038.56804274998</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15604,7 +15132,7 @@
         <v>-77587.54694274998</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15780,6 +15308,6 @@
       <c r="M442" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-11 BackTest QTUM.xlsx
@@ -1936,7 +1936,7 @@
         <v>-3386.198899999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3601.956290399998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4357.312790399998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7194.365555569997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7460.651455569997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7495.880355569997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7470.544155569997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7404.135655569997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7488.823655569997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6245.023655569997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6085.593655569996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5603.593655569996</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-6985.949155569996</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4337.680865959996</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4528.472165959995</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4825.099765959995</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4823.559670369995</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4911.431570369995</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4881.223670369995</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5581.316470369995</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5510.653370369995</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4928.459270369995</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4295.262870369996</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4293.514870369996</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4318.500570369996</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4179.474670369997</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31050.12337037</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-30418.62927037</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-30345.40337037</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-30594.51817037</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-31864.74177037</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-31862.74177037</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-31915.47357037</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-35665.60227037</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -9031,14 +9031,10 @@
         <v>-64065.25674366</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
@@ -9071,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1850</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1850</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +9988,10 @@
         <v>-68628.48344366001</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1841</v>
-      </c>
-      <c r="J291" t="n">
-        <v>1841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -10041,19 +10021,11 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1841</v>
-      </c>
-      <c r="J292" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10082,19 +10054,11 @@
         <v>-68772.74454366001</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1840</v>
-      </c>
-      <c r="J293" t="n">
-        <v>1841</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10123,14 +10087,10 @@
         <v>-68818.08454366001</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1840</v>
-      </c>
-      <c r="J294" t="n">
-        <v>1840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
@@ -10160,60 +10120,50 @@
         <v>-68860.90254366001</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1839</v>
-      </c>
-      <c r="J295" t="n">
-        <v>1840</v>
-      </c>
-      <c r="K295" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1838</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1837</v>
+      </c>
+      <c r="F296" t="n">
+        <v>210.7816</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-69071.68414366001</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1838</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>1838</v>
-      </c>
-      <c r="C296" t="n">
-        <v>1837</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1838</v>
-      </c>
-      <c r="E296" t="n">
-        <v>1837</v>
-      </c>
-      <c r="F296" t="n">
-        <v>210.7816</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-69071.68414366001</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1838</v>
-      </c>
-      <c r="J296" t="n">
-        <v>1840</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10247,9 +10197,7 @@
       <c r="I297" t="n">
         <v>1837</v>
       </c>
-      <c r="J297" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,9 +10236,7 @@
       <c r="I298" t="n">
         <v>1837</v>
       </c>
-      <c r="J298" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,9 +10275,7 @@
       <c r="I299" t="n">
         <v>1835</v>
       </c>
-      <c r="J299" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10370,9 +10314,7 @@
       <c r="I300" t="n">
         <v>1836</v>
       </c>
-      <c r="J300" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,9 +10353,7 @@
       <c r="I301" t="n">
         <v>1841</v>
       </c>
-      <c r="J301" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,9 +10392,7 @@
       <c r="I302" t="n">
         <v>1836</v>
       </c>
-      <c r="J302" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +10431,7 @@
       <c r="I303" t="n">
         <v>1838</v>
       </c>
-      <c r="J303" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,9 +10470,7 @@
       <c r="I304" t="n">
         <v>1838</v>
       </c>
-      <c r="J304" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,12 +10504,12 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1845</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,12 +10543,12 @@
         <v>-68441.43424365998</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,12 +10582,12 @@
         <v>-68378.68724365998</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,12 +10621,12 @@
         <v>-68447.49934365998</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1847</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,12 +10660,12 @@
         <v>-68265.21294365998</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,12 +10699,12 @@
         <v>-68264.61294365997</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1840</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1847</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,9 +10741,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,9 +10778,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,9 +10815,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,9 +10852,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,9 +10889,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,9 +10926,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,9 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,9 +11000,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,9 +11037,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,9 +11074,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,9 +11111,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,9 +11148,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,14 +11182,10 @@
         <v>-68955.99404365997</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1846</v>
-      </c>
-      <c r="J323" t="n">
-        <v>1840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11316,9 +11222,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11355,9 +11259,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11394,9 +11296,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,9 +11333,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11472,9 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11511,9 +11407,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,9 +11444,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11589,9 +11481,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11628,9 +11518,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11667,9 +11555,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11706,9 +11592,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11745,9 +11629,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11784,9 +11666,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,9 +11703,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1840</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,2231 +11737,2495 @@
         <v>-65240.32631129996</v>
       </c>
       <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1876</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1876</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F339" t="n">
+        <v>7.4103</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-65247.73661129997</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1876</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1876</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F340" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-65247.73661129997</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-65250.62461129997</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-65250.62461129997</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1871</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1186.3313</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-66436.95591129997</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1871</v>
+      </c>
+      <c r="F344" t="n">
+        <v>341.8805</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-66095.07541129997</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1879</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1879</v>
+      </c>
+      <c r="F345" t="n">
+        <v>912.704</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-65182.37141129997</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1889</v>
+      </c>
+      <c r="F346" t="n">
+        <v>52.8063</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-65235.17771129997</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3962.1545</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-61273.02321129997</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F348" t="n">
+        <v>5.8617</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-61278.88491129997</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1076.426</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-61278.88491129997</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F350" t="n">
+        <v>500</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-61278.88491129997</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1892</v>
+      </c>
+      <c r="F351" t="n">
+        <v>5</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-61273.88491129997</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F352" t="n">
+        <v>305.405</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-61579.28991129997</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1883</v>
+      </c>
+      <c r="F353" t="n">
+        <v>254.119</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-61833.40891129997</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1889</v>
+      </c>
+      <c r="F354" t="n">
+        <v>829.8099999999999</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-61003.59891129997</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1893</v>
+      </c>
+      <c r="F355" t="n">
+        <v>158.3121</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-61003.59891129997</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1893</v>
+      </c>
+      <c r="F356" t="n">
+        <v>395.3121</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-60608.28681129997</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1891</v>
+      </c>
+      <c r="F357" t="n">
+        <v>365.6045</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-60608.28681129997</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1895</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F358" t="n">
+        <v>4844.293</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-55763.99381129997</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2.7598</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-55763.99381129997</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F360" t="n">
+        <v>221.0908</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-55542.90301129998</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1898</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1897</v>
+      </c>
+      <c r="F361" t="n">
+        <v>20</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-55522.90301129998</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F362" t="n">
+        <v>351.5299</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-55874.43291129998</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1892</v>
+      </c>
+      <c r="F363" t="n">
+        <v>322.7718</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-56197.20471129998</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1892</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1892</v>
+      </c>
+      <c r="F364" t="n">
+        <v>100</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-56197.20471129998</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F365" t="n">
+        <v>361.0087</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-56558.21341129998</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F366" t="n">
+        <v>269.0568</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-56827.27021129998</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1891</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1891</v>
+      </c>
+      <c r="F367" t="n">
+        <v>105</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F368" t="n">
+        <v>2478.9837</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.8161</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2020.6133</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1267.2356</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F372" t="n">
+        <v>74.2037</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F373" t="n">
+        <v>212.7137</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-56722.27021129998</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1897</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1137.4054</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-55584.86481129997</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1897</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1894</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2387.8691</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-57972.73391129998</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1897</v>
+      </c>
+      <c r="F376" t="n">
+        <v>965.9246000000001</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-57006.80931129998</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F377" t="n">
+        <v>2125.2953</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-54881.51401129998</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1005.7987</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-55887.31271129998</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F379" t="n">
+        <v>82.8694</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-55804.44331129998</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F380" t="n">
+        <v>983.5349</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-55804.44331129998</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1491.5797</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-54312.86361129997</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F382" t="n">
+        <v>965.092</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-54312.86361129997</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1897</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1897</v>
+      </c>
+      <c r="F383" t="n">
+        <v>9.9627</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-54322.82631129997</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1091.91193779</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-55414.73824908997</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1898</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F385" t="n">
+        <v>720.0159</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-56134.75414908997</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1904</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1904</v>
+      </c>
+      <c r="F386" t="n">
+        <v>383.9129</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-55750.84124908996</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-55750.57824908997</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F388" t="n">
+        <v>854.0332</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-56604.61144908996</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F389" t="n">
+        <v>7.94803149</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-56596.66341759996</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F390" t="n">
+        <v>250</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-56596.66341759996</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1223.3787</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-57820.04211759997</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F392" t="n">
+        <v>329.7082</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-57820.04211759997</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F393" t="n">
+        <v>52.22777485</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-57767.81434274997</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F394" t="n">
+        <v>2464.09892515</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-57767.81434274997</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1416.7496</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-57767.81434274997</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F396" t="n">
+        <v>10</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-57757.81434274997</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F397" t="n">
+        <v>203.4718</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-57554.34254274997</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F398" t="n">
+        <v>87.93980000000001</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-57642.28234274997</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F399" t="n">
+        <v>83.0277</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-57725.31004274997</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F400" t="n">
+        <v>350.623</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-57374.68704274997</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1001.9364</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-56372.75064274997</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2555.7951</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-56372.75064274997</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2639.9206</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-53732.83004274997</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2839.0676</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-56571.89764274997</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F405" t="n">
+        <v>975.6416</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-56571.89764274997</v>
+      </c>
+      <c r="H405" t="n">
         <v>2</v>
       </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1840</v>
-      </c>
-      <c r="K338" t="inlineStr">
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1.016739130434783</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>1876</v>
-      </c>
-      <c r="C339" t="n">
-        <v>1876</v>
-      </c>
-      <c r="D339" t="n">
-        <v>1876</v>
-      </c>
-      <c r="E339" t="n">
-        <v>1876</v>
-      </c>
-      <c r="F339" t="n">
-        <v>7.4103</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-65247.73661129997</v>
-      </c>
-      <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>1876</v>
-      </c>
-      <c r="C340" t="n">
-        <v>1876</v>
-      </c>
-      <c r="D340" t="n">
-        <v>1876</v>
-      </c>
-      <c r="E340" t="n">
-        <v>1876</v>
-      </c>
-      <c r="F340" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-65247.73661129997</v>
-      </c>
-      <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C341" t="n">
-        <v>1875</v>
-      </c>
-      <c r="D341" t="n">
-        <v>1875</v>
-      </c>
-      <c r="E341" t="n">
-        <v>1875</v>
-      </c>
-      <c r="F341" t="n">
-        <v>2.888</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-65250.62461129997</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1875</v>
-      </c>
-      <c r="D342" t="n">
-        <v>1875</v>
-      </c>
-      <c r="E342" t="n">
-        <v>1875</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1.444</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-65250.62461129997</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C343" t="n">
-        <v>1871</v>
-      </c>
-      <c r="D343" t="n">
-        <v>1875</v>
-      </c>
-      <c r="E343" t="n">
-        <v>1871</v>
-      </c>
-      <c r="F343" t="n">
-        <v>1186.3313</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-66436.95591129997</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>1871</v>
-      </c>
-      <c r="C344" t="n">
-        <v>1875</v>
-      </c>
-      <c r="D344" t="n">
-        <v>1875</v>
-      </c>
-      <c r="E344" t="n">
-        <v>1871</v>
-      </c>
-      <c r="F344" t="n">
-        <v>341.8805</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-66095.07541129997</v>
-      </c>
-      <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>1879</v>
-      </c>
-      <c r="C345" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D345" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E345" t="n">
-        <v>1879</v>
-      </c>
-      <c r="F345" t="n">
-        <v>912.704</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-65182.37141129997</v>
-      </c>
-      <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>1889</v>
-      </c>
-      <c r="C346" t="n">
-        <v>1889</v>
-      </c>
-      <c r="D346" t="n">
-        <v>1889</v>
-      </c>
-      <c r="E346" t="n">
-        <v>1889</v>
-      </c>
-      <c r="F346" t="n">
-        <v>52.8063</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-65235.17771129997</v>
-      </c>
-      <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>1888</v>
-      </c>
-      <c r="C347" t="n">
-        <v>1892</v>
-      </c>
-      <c r="D347" t="n">
-        <v>1892</v>
-      </c>
-      <c r="E347" t="n">
-        <v>1888</v>
-      </c>
-      <c r="F347" t="n">
-        <v>3962.1545</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-61273.02321129997</v>
-      </c>
-      <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>1893</v>
-      </c>
-      <c r="C348" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D348" t="n">
-        <v>1893</v>
-      </c>
-      <c r="E348" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F348" t="n">
-        <v>5.8617</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-61278.88491129997</v>
-      </c>
-      <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C349" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D349" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E349" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F349" t="n">
-        <v>1076.426</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-61278.88491129997</v>
-      </c>
-      <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C350" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D350" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E350" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F350" t="n">
-        <v>500</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-61278.88491129997</v>
-      </c>
-      <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>1892</v>
-      </c>
-      <c r="C351" t="n">
-        <v>1892</v>
-      </c>
-      <c r="D351" t="n">
-        <v>1892</v>
-      </c>
-      <c r="E351" t="n">
-        <v>1892</v>
-      </c>
-      <c r="F351" t="n">
-        <v>5</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-61273.88491129997</v>
-      </c>
-      <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>1892</v>
-      </c>
-      <c r="C352" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D352" t="n">
-        <v>1892</v>
-      </c>
-      <c r="E352" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F352" t="n">
-        <v>305.405</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-61579.28991129997</v>
-      </c>
-      <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>1885</v>
-      </c>
-      <c r="C353" t="n">
-        <v>1889</v>
-      </c>
-      <c r="D353" t="n">
-        <v>1889</v>
-      </c>
-      <c r="E353" t="n">
-        <v>1883</v>
-      </c>
-      <c r="F353" t="n">
-        <v>254.119</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-61833.40891129997</v>
-      </c>
-      <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C354" t="n">
-        <v>1893</v>
-      </c>
-      <c r="D354" t="n">
-        <v>1893</v>
-      </c>
-      <c r="E354" t="n">
-        <v>1889</v>
-      </c>
-      <c r="F354" t="n">
-        <v>829.8099999999999</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-61003.59891129997</v>
-      </c>
-      <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>1893</v>
-      </c>
-      <c r="C355" t="n">
-        <v>1893</v>
-      </c>
-      <c r="D355" t="n">
-        <v>1893</v>
-      </c>
-      <c r="E355" t="n">
-        <v>1893</v>
-      </c>
-      <c r="F355" t="n">
-        <v>158.3121</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-61003.59891129997</v>
-      </c>
-      <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>1893</v>
-      </c>
-      <c r="C356" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D356" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E356" t="n">
-        <v>1893</v>
-      </c>
-      <c r="F356" t="n">
-        <v>395.3121</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-60608.28681129997</v>
-      </c>
-      <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>1894</v>
-      </c>
-      <c r="C357" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D357" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E357" t="n">
-        <v>1891</v>
-      </c>
-      <c r="F357" t="n">
-        <v>365.6045</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-60608.28681129997</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>1895</v>
-      </c>
-      <c r="C358" t="n">
-        <v>1895</v>
-      </c>
-      <c r="D358" t="n">
-        <v>1895</v>
-      </c>
-      <c r="E358" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F358" t="n">
-        <v>4844.293</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-55763.99381129997</v>
-      </c>
-      <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>1896</v>
-      </c>
-      <c r="C359" t="n">
-        <v>1895</v>
-      </c>
-      <c r="D359" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E359" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F359" t="n">
-        <v>2.7598</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-55763.99381129997</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>1895</v>
-      </c>
-      <c r="C360" t="n">
-        <v>1896</v>
-      </c>
-      <c r="D360" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E360" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F360" t="n">
-        <v>221.0908</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-55542.90301129998</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1898</v>
-      </c>
-      <c r="D361" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E361" t="n">
-        <v>1897</v>
-      </c>
-      <c r="F361" t="n">
-        <v>20</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-55522.90301129998</v>
-      </c>
-      <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>1896</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1896</v>
-      </c>
-      <c r="D362" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E362" t="n">
-        <v>1896</v>
-      </c>
-      <c r="F362" t="n">
-        <v>351.5299</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-55874.43291129998</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>1896</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1892</v>
-      </c>
-      <c r="D363" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E363" t="n">
-        <v>1892</v>
-      </c>
-      <c r="F363" t="n">
-        <v>322.7718</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-56197.20471129998</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>1892</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1892</v>
-      </c>
-      <c r="D364" t="n">
-        <v>1892</v>
-      </c>
-      <c r="E364" t="n">
-        <v>1892</v>
-      </c>
-      <c r="F364" t="n">
-        <v>100</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-56197.20471129998</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C365" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D365" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E365" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F365" t="n">
-        <v>361.0087</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-56558.21341129998</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>1889</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1889</v>
-      </c>
-      <c r="D366" t="n">
-        <v>1889</v>
-      </c>
-      <c r="E366" t="n">
-        <v>1888</v>
-      </c>
-      <c r="F366" t="n">
-        <v>269.0568</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-56827.27021129998</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>1891</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D367" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E367" t="n">
-        <v>1891</v>
-      </c>
-      <c r="F367" t="n">
-        <v>105</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D368" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E368" t="n">
-        <v>1890</v>
-      </c>
-      <c r="F368" t="n">
-        <v>2478.9837</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>1894</v>
-      </c>
-      <c r="C369" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D369" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E369" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F369" t="n">
-        <v>0.8161</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>1896</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D370" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E370" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F370" t="n">
-        <v>2020.6133</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>1894</v>
-      </c>
-      <c r="C371" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D371" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E371" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F371" t="n">
-        <v>1267.2356</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>1894</v>
-      </c>
-      <c r="C372" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D372" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E372" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F372" t="n">
-        <v>74.2037</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>1894</v>
-      </c>
-      <c r="C373" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D373" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E373" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F373" t="n">
-        <v>212.7137</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-56722.27021129998</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C374" t="n">
-        <v>1897</v>
-      </c>
-      <c r="D374" t="n">
-        <v>1897</v>
-      </c>
-      <c r="E374" t="n">
-        <v>1896</v>
-      </c>
-      <c r="F374" t="n">
-        <v>1137.4054</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-55584.86481129997</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C375" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D375" t="n">
-        <v>1897</v>
-      </c>
-      <c r="E375" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F375" t="n">
-        <v>2387.8691</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-57972.73391129998</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C376" t="n">
-        <v>1899</v>
-      </c>
-      <c r="D376" t="n">
-        <v>1899</v>
-      </c>
-      <c r="E376" t="n">
-        <v>1897</v>
-      </c>
-      <c r="F376" t="n">
-        <v>965.9246000000001</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-57006.80931129998</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>1899</v>
-      </c>
-      <c r="C377" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D377" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E377" t="n">
-        <v>1899</v>
-      </c>
-      <c r="F377" t="n">
-        <v>2125.2953</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-54881.51401129998</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C378" t="n">
-        <v>1895</v>
-      </c>
-      <c r="D378" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E378" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F378" t="n">
-        <v>1005.7987</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-55887.31271129998</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D379" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E379" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F379" t="n">
-        <v>82.8694</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-55804.44331129998</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C380" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D380" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E380" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F380" t="n">
-        <v>983.5349</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-55804.44331129998</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C381" t="n">
-        <v>1902</v>
-      </c>
-      <c r="D381" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E381" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F381" t="n">
-        <v>1491.5797</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-54312.86361129997</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C382" t="n">
-        <v>1902</v>
-      </c>
-      <c r="D382" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E382" t="n">
-        <v>1902</v>
-      </c>
-      <c r="F382" t="n">
-        <v>965.092</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-54312.86361129997</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C383" t="n">
-        <v>1897</v>
-      </c>
-      <c r="D383" t="n">
-        <v>1897</v>
-      </c>
-      <c r="E383" t="n">
-        <v>1897</v>
-      </c>
-      <c r="F383" t="n">
-        <v>9.9627</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-54322.82631129997</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C384" t="n">
-        <v>1896</v>
-      </c>
-      <c r="D384" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E384" t="n">
-        <v>1896</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1091.91193779</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-55414.73824908997</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>1897</v>
-      </c>
-      <c r="C385" t="n">
-        <v>1895</v>
-      </c>
-      <c r="D385" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E385" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F385" t="n">
-        <v>720.0159</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-56134.75414908997</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C386" t="n">
-        <v>1904</v>
-      </c>
-      <c r="D386" t="n">
-        <v>1904</v>
-      </c>
-      <c r="E386" t="n">
-        <v>1904</v>
-      </c>
-      <c r="F386" t="n">
-        <v>383.9129</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-55750.84124908996</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C387" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D387" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E387" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F387" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-55750.57824908997</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C388" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D388" t="n">
-        <v>1904</v>
-      </c>
-      <c r="E388" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F388" t="n">
-        <v>854.0332</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-56604.61144908996</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C389" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D389" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E389" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F389" t="n">
-        <v>7.94803149</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-56596.66341759996</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C390" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D390" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E390" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F390" t="n">
-        <v>250</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-56596.66341759996</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C391" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D391" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E391" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F391" t="n">
-        <v>1223.3787</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-57820.04211759997</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C392" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D392" t="n">
-        <v>1900</v>
-      </c>
-      <c r="E392" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F392" t="n">
-        <v>329.7082</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-57820.04211759997</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C393" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D393" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E393" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F393" t="n">
-        <v>52.22777485</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-57767.81434274997</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C394" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D394" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E394" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F394" t="n">
-        <v>2464.09892515</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-57767.81434274997</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="C395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="E395" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F395" t="n">
-        <v>1416.7496</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-57767.81434274997</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E396" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F396" t="n">
-        <v>10</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-57757.81434274997</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C397" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D397" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E397" t="n">
-        <v>1902</v>
-      </c>
-      <c r="F397" t="n">
-        <v>203.4718</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-57554.34254274997</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E398" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F398" t="n">
-        <v>87.93980000000001</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-57642.28234274997</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C399" t="n">
-        <v>1901</v>
-      </c>
-      <c r="D399" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E399" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F399" t="n">
-        <v>83.0277</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-57725.31004274997</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="C400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="D400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E400" t="n">
-        <v>1902</v>
-      </c>
-      <c r="F400" t="n">
-        <v>350.623</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-57374.68704274997</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D401" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E401" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F401" t="n">
-        <v>1001.9364</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-56372.75064274997</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E402" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F402" t="n">
-        <v>2555.7951</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-56372.75064274997</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C403" t="n">
-        <v>1916</v>
-      </c>
-      <c r="D403" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E403" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F403" t="n">
-        <v>2639.9206</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-53732.83004274997</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C404" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D404" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E404" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F404" t="n">
-        <v>2839.0676</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-56571.89764274997</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E405" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F405" t="n">
-        <v>975.6416</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-56571.89764274997</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
@@ -14142,7 +14284,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14175,7 +14317,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14208,7 +14350,7 @@
         <v>-56328.44184274997</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14241,7 +14383,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14274,7 +14416,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14307,7 +14449,7 @@
         <v>-68765.11574274997</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14340,7 +14482,7 @@
         <v>-68607.05594274997</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14373,7 +14515,7 @@
         <v>-69015.69334274998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14406,7 +14548,7 @@
         <v>-71085.59664274998</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14439,7 +14581,7 @@
         <v>-71987.27894274998</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14472,7 +14614,7 @@
         <v>-73297.51744274999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
